--- a/main_schedule/main_schedule.xlsx
+++ b/main_schedule/main_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Edu_Bot\main_schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE2D4C7-C4E3-4288-9878-E902185F207D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E16EB7-3276-481B-B3A0-EFEABAC9BDF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{E8967D55-328C-4640-99CC-630AA6B11682}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8967D55-328C-4640-99CC-630AA6B11682}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +407,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>43346</v>
+        <v>43507</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -429,6 +429,9 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43497</v>
       </c>
     </row>
   </sheetData>
